--- a/TextReplace.Tests/MockFiles/OutputTests/Outputs/Styling/output-financial-sample-all-styles.xlsx
+++ b/TextReplace.Tests/MockFiles/OutputTests/Outputs/Styling/output-financial-sample-all-styles.xlsx
@@ -273,3012 +273,6 @@
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
   </x:fills>
   <x:borders count="1">
     <x:border>
@@ -3293,7 +287,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </x:cellStyleXfs>
-  <x:cellXfs count="512">
+  <x:cellXfs count="13">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3304,508 +298,9 @@
     <x:xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
-    <x:xf fillId="2" applyFill="1"/>
+    <x:xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -4413,7 +908,7 @@
       <x:c r="E1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="11" t="s">
+      <x:c r="F1" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
@@ -4443,12 +938,12 @@
       <x:c r="O1" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="P1" s="12" t="s">
+      <x:c r="P1" s="11" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="13" t="s">
+      <x:c r="A2" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B2" t="s">
@@ -4498,7 +993,7 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="14" t="s">
+      <x:c r="A3" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" t="s">
@@ -4548,7 +1043,7 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="15" t="s">
+      <x:c r="A4" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B4" t="s">
@@ -4598,7 +1093,7 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="16" t="s">
+      <x:c r="A5" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B5" t="s">
@@ -4648,7 +1143,7 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="17" t="s">
+      <x:c r="A6" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B6" t="s">
@@ -4698,7 +1193,7 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="18" t="s">
+      <x:c r="A7" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B7" t="s">
@@ -4748,7 +1243,7 @@
       </x:c>
     </x:row>
     <x:row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="19" t="s">
+      <x:c r="A8" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B8" t="s">
@@ -4848,7 +1343,7 @@
       </x:c>
     </x:row>
     <x:row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="20" t="s">
+      <x:c r="A10" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B10" t="s">
@@ -4948,7 +1443,7 @@
       </x:c>
     </x:row>
     <x:row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A12" s="21" t="s">
+      <x:c r="A12" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B12" t="s">
@@ -5048,7 +1543,7 @@
       </x:c>
     </x:row>
     <x:row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A14" s="22" t="s">
+      <x:c r="A14" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B14" t="s">
@@ -5098,7 +1593,7 @@
       </x:c>
     </x:row>
     <x:row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A15" s="23" t="s">
+      <x:c r="A15" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B15" t="s">
@@ -5198,7 +1693,7 @@
       </x:c>
     </x:row>
     <x:row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A17" s="24" t="s">
+      <x:c r="A17" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B17" t="s">
@@ -5248,7 +1743,7 @@
       </x:c>
     </x:row>
     <x:row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A18" s="25" t="s">
+      <x:c r="A18" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B18" t="s">
@@ -5298,7 +1793,7 @@
       </x:c>
     </x:row>
     <x:row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A19" s="26" t="s">
+      <x:c r="A19" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B19" t="s">
@@ -5398,7 +1893,7 @@
       </x:c>
     </x:row>
     <x:row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A21" s="27" t="s">
+      <x:c r="A21" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B21" t="s">
@@ -5498,7 +1993,7 @@
       </x:c>
     </x:row>
     <x:row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A23" s="28" t="s">
+      <x:c r="A23" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B23" t="s">
@@ -5548,7 +2043,7 @@
       </x:c>
     </x:row>
     <x:row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A24" s="29" t="s">
+      <x:c r="A24" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B24" t="s">
@@ -5598,7 +2093,7 @@
       </x:c>
     </x:row>
     <x:row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A25" s="30" t="s">
+      <x:c r="A25" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B25" t="s">
@@ -5648,7 +2143,7 @@
       </x:c>
     </x:row>
     <x:row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A26" s="31" t="s">
+      <x:c r="A26" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B26" t="s">
@@ -5698,7 +2193,7 @@
       </x:c>
     </x:row>
     <x:row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A27" s="32" t="s">
+      <x:c r="A27" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B27" t="s">
@@ -5748,7 +2243,7 @@
       </x:c>
     </x:row>
     <x:row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A28" s="33" t="s">
+      <x:c r="A28" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B28" t="s">
@@ -5848,7 +2343,7 @@
       </x:c>
     </x:row>
     <x:row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A30" s="34" t="s">
+      <x:c r="A30" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B30" t="s">
@@ -5898,7 +2393,7 @@
       </x:c>
     </x:row>
     <x:row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A31" s="35" t="s">
+      <x:c r="A31" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B31" t="s">
@@ -5948,7 +2443,7 @@
       </x:c>
     </x:row>
     <x:row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A32" s="36" t="s">
+      <x:c r="A32" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B32" t="s">
@@ -5998,7 +2493,7 @@
       </x:c>
     </x:row>
     <x:row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A33" s="37" t="s">
+      <x:c r="A33" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B33" t="s">
@@ -6148,7 +2643,7 @@
       </x:c>
     </x:row>
     <x:row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A36" s="38" t="s">
+      <x:c r="A36" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B36" t="s">
@@ -6348,7 +2843,7 @@
       </x:c>
     </x:row>
     <x:row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A40" s="39" t="s">
+      <x:c r="A40" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B40" t="s">
@@ -6448,7 +2943,7 @@
       </x:c>
     </x:row>
     <x:row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A42" s="40" t="s">
+      <x:c r="A42" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B42" t="s">
@@ -6498,7 +2993,7 @@
       </x:c>
     </x:row>
     <x:row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A43" s="41" t="s">
+      <x:c r="A43" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B43" t="s">
@@ -6548,7 +3043,7 @@
       </x:c>
     </x:row>
     <x:row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A44" s="42" t="s">
+      <x:c r="A44" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B44" t="s">
@@ -6598,7 +3093,7 @@
       </x:c>
     </x:row>
     <x:row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A45" s="43" t="s">
+      <x:c r="A45" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B45" t="s">
@@ -6648,7 +3143,7 @@
       </x:c>
     </x:row>
     <x:row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A46" s="44" t="s">
+      <x:c r="A46" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B46" t="s">
@@ -6698,7 +3193,7 @@
       </x:c>
     </x:row>
     <x:row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A47" s="45" t="s">
+      <x:c r="A47" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B47" t="s">
@@ -6848,7 +3343,7 @@
       </x:c>
     </x:row>
     <x:row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A50" s="46" t="s">
+      <x:c r="A50" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B50" t="s">
@@ -6898,7 +3393,7 @@
       </x:c>
     </x:row>
     <x:row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A51" s="47" t="s">
+      <x:c r="A51" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B51" t="s">
@@ -6998,7 +3493,7 @@
       </x:c>
     </x:row>
     <x:row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A53" s="48" t="s">
+      <x:c r="A53" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B53" t="s">
@@ -7048,7 +3543,7 @@
       </x:c>
     </x:row>
     <x:row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A54" s="49" t="s">
+      <x:c r="A54" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B54" t="s">
@@ -7098,7 +3593,7 @@
       </x:c>
     </x:row>
     <x:row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A55" s="50" t="s">
+      <x:c r="A55" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B55" t="s">
@@ -7148,7 +3643,7 @@
       </x:c>
     </x:row>
     <x:row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A56" s="51" t="s">
+      <x:c r="A56" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B56" t="s">
@@ -7198,7 +3693,7 @@
       </x:c>
     </x:row>
     <x:row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A57" s="52" t="s">
+      <x:c r="A57" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B57" t="s">
@@ -7248,7 +3743,7 @@
       </x:c>
     </x:row>
     <x:row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A58" s="53" t="s">
+      <x:c r="A58" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B58" t="s">
@@ -7298,7 +3793,7 @@
       </x:c>
     </x:row>
     <x:row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A59" s="54" t="s">
+      <x:c r="A59" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B59" t="s">
@@ -7398,7 +3893,7 @@
       </x:c>
     </x:row>
     <x:row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A61" s="55" t="s">
+      <x:c r="A61" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B61" t="s">
@@ -7448,7 +3943,7 @@
       </x:c>
     </x:row>
     <x:row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A62" s="56" t="s">
+      <x:c r="A62" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B62" t="s">
@@ -7698,7 +4193,7 @@
       </x:c>
     </x:row>
     <x:row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A67" s="57" t="s">
+      <x:c r="A67" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B67" t="s">
@@ -7748,7 +4243,7 @@
       </x:c>
     </x:row>
     <x:row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A68" s="58" t="s">
+      <x:c r="A68" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B68" t="s">
@@ -7798,7 +4293,7 @@
       </x:c>
     </x:row>
     <x:row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A69" s="59" t="s">
+      <x:c r="A69" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B69" t="s">
@@ -7848,7 +4343,7 @@
       </x:c>
     </x:row>
     <x:row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A70" s="60" t="s">
+      <x:c r="A70" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B70" t="s">
@@ -7898,7 +4393,7 @@
       </x:c>
     </x:row>
     <x:row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A71" s="61" t="s">
+      <x:c r="A71" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B71" t="s">
@@ -7948,7 +4443,7 @@
       </x:c>
     </x:row>
     <x:row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A72" s="62" t="s">
+      <x:c r="A72" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B72" t="s">
@@ -7998,7 +4493,7 @@
       </x:c>
     </x:row>
     <x:row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A73" s="63" t="s">
+      <x:c r="A73" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B73" t="s">
@@ -8048,7 +4543,7 @@
       </x:c>
     </x:row>
     <x:row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A74" s="64" t="s">
+      <x:c r="A74" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B74" t="s">
@@ -8148,7 +4643,7 @@
       </x:c>
     </x:row>
     <x:row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A76" s="65" t="s">
+      <x:c r="A76" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B76" t="s">
@@ -8198,7 +4693,7 @@
       </x:c>
     </x:row>
     <x:row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A77" s="66" t="s">
+      <x:c r="A77" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B77" t="s">
@@ -8398,7 +4893,7 @@
       </x:c>
     </x:row>
     <x:row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A81" s="67" t="s">
+      <x:c r="A81" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B81" t="s">
@@ -8498,7 +4993,7 @@
       </x:c>
     </x:row>
     <x:row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A83" s="68" t="s">
+      <x:c r="A83" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B83" t="s">
@@ -8548,7 +5043,7 @@
       </x:c>
     </x:row>
     <x:row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A84" s="69" t="s">
+      <x:c r="A84" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B84" t="s">
@@ -8598,7 +5093,7 @@
       </x:c>
     </x:row>
     <x:row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A85" s="70" t="s">
+      <x:c r="A85" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B85" t="s">
@@ -8648,7 +5143,7 @@
       </x:c>
     </x:row>
     <x:row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A86" s="71" t="s">
+      <x:c r="A86" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B86" t="s">
@@ -8798,7 +5293,7 @@
       </x:c>
     </x:row>
     <x:row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A89" s="72" t="s">
+      <x:c r="A89" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B89" t="s">
@@ -8848,7 +5343,7 @@
       </x:c>
     </x:row>
     <x:row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A90" s="73" t="s">
+      <x:c r="A90" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B90" t="s">
@@ -8898,7 +5393,7 @@
       </x:c>
     </x:row>
     <x:row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A91" s="74" t="s">
+      <x:c r="A91" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B91" t="s">
@@ -9048,7 +5543,7 @@
       </x:c>
     </x:row>
     <x:row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A94" s="75" t="s">
+      <x:c r="A94" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B94" t="s">
@@ -9098,7 +5593,7 @@
       </x:c>
     </x:row>
     <x:row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A95" s="76" t="s">
+      <x:c r="A95" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B95" t="s">
@@ -9148,7 +5643,7 @@
       </x:c>
     </x:row>
     <x:row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A96" s="77" t="s">
+      <x:c r="A96" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B96" t="s">
@@ -9298,7 +5793,7 @@
       </x:c>
     </x:row>
     <x:row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A99" s="78" t="s">
+      <x:c r="A99" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B99" t="s">
@@ -9448,7 +5943,7 @@
       </x:c>
     </x:row>
     <x:row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A102" s="79" t="s">
+      <x:c r="A102" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B102" t="s">
@@ -9498,7 +5993,7 @@
       </x:c>
     </x:row>
     <x:row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A103" s="80" t="s">
+      <x:c r="A103" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B103" t="s">
@@ -9548,7 +6043,7 @@
       </x:c>
     </x:row>
     <x:row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A104" s="81" t="s">
+      <x:c r="A104" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B104" t="s">
@@ -9648,7 +6143,7 @@
       </x:c>
     </x:row>
     <x:row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A106" s="82" t="s">
+      <x:c r="A106" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B106" t="s">
@@ -9798,7 +6293,7 @@
       </x:c>
     </x:row>
     <x:row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A109" s="83" t="s">
+      <x:c r="A109" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B109" t="s">
@@ -9848,7 +6343,7 @@
       </x:c>
     </x:row>
     <x:row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A110" s="84" t="s">
+      <x:c r="A110" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B110" t="s">
@@ -9898,7 +6393,7 @@
       </x:c>
     </x:row>
     <x:row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A111" s="85" t="s">
+      <x:c r="A111" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B111" t="s">
@@ -10248,7 +6743,7 @@
       </x:c>
     </x:row>
     <x:row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A118" s="86" t="s">
+      <x:c r="A118" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B118" t="s">
@@ -10298,7 +6793,7 @@
       </x:c>
     </x:row>
     <x:row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A119" s="87" t="s">
+      <x:c r="A119" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B119" t="s">
@@ -10398,7 +6893,7 @@
       </x:c>
     </x:row>
     <x:row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A121" s="88" t="s">
+      <x:c r="A121" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B121" t="s">
@@ -10448,7 +6943,7 @@
       </x:c>
     </x:row>
     <x:row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A122" s="89" t="s">
+      <x:c r="A122" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B122" t="s">
@@ -10598,7 +7093,7 @@
       </x:c>
     </x:row>
     <x:row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A125" s="90" t="s">
+      <x:c r="A125" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B125" t="s">
@@ -10648,7 +7143,7 @@
       </x:c>
     </x:row>
     <x:row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A126" s="91" t="s">
+      <x:c r="A126" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B126" t="s">
@@ -10698,7 +7193,7 @@
       </x:c>
     </x:row>
     <x:row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A127" s="92" t="s">
+      <x:c r="A127" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B127" t="s">
@@ -10898,7 +7393,7 @@
       </x:c>
     </x:row>
     <x:row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A131" s="93" t="s">
+      <x:c r="A131" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B131" t="s">
@@ -11048,7 +7543,7 @@
       </x:c>
     </x:row>
     <x:row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A134" s="94" t="s">
+      <x:c r="A134" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B134" t="s">
@@ -11098,7 +7593,7 @@
       </x:c>
     </x:row>
     <x:row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A135" s="95" t="s">
+      <x:c r="A135" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B135" t="s">
@@ -11198,7 +7693,7 @@
       </x:c>
     </x:row>
     <x:row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A137" s="96" t="s">
+      <x:c r="A137" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B137" t="s">
@@ -11248,7 +7743,7 @@
       </x:c>
     </x:row>
     <x:row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A138" s="97" t="s">
+      <x:c r="A138" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B138" t="s">
@@ -11298,7 +7793,7 @@
       </x:c>
     </x:row>
     <x:row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A139" s="98" t="s">
+      <x:c r="A139" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B139" t="s">
@@ -11348,7 +7843,7 @@
       </x:c>
     </x:row>
     <x:row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A140" s="99" t="s">
+      <x:c r="A140" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B140" t="s">
@@ -11448,7 +7943,7 @@
       </x:c>
     </x:row>
     <x:row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A142" s="100" t="s">
+      <x:c r="A142" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B142" t="s">
@@ -11498,7 +7993,7 @@
       </x:c>
     </x:row>
     <x:row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A143" s="101" t="s">
+      <x:c r="A143" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B143" t="s">
@@ -11548,7 +8043,7 @@
       </x:c>
     </x:row>
     <x:row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A144" s="102" t="s">
+      <x:c r="A144" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B144" t="s">
@@ -11598,7 +8093,7 @@
       </x:c>
     </x:row>
     <x:row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A145" s="103" t="s">
+      <x:c r="A145" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B145" t="s">
@@ -11698,7 +8193,7 @@
       </x:c>
     </x:row>
     <x:row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A147" s="104" t="s">
+      <x:c r="A147" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B147" t="s">
@@ -11748,7 +8243,7 @@
       </x:c>
     </x:row>
     <x:row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A148" s="105" t="s">
+      <x:c r="A148" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B148" t="s">
@@ -11898,7 +8393,7 @@
       </x:c>
     </x:row>
     <x:row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A151" s="106" t="s">
+      <x:c r="A151" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B151" t="s">
@@ -11998,7 +8493,7 @@
       </x:c>
     </x:row>
     <x:row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A153" s="107" t="s">
+      <x:c r="A153" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B153" t="s">
@@ -12048,7 +8543,7 @@
       </x:c>
     </x:row>
     <x:row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A154" s="108" t="s">
+      <x:c r="A154" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B154" t="s">
@@ -12198,7 +8693,7 @@
       </x:c>
     </x:row>
     <x:row r="157" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A157" s="109" t="s">
+      <x:c r="A157" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B157" t="s">
@@ -12348,7 +8843,7 @@
       </x:c>
     </x:row>
     <x:row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A160" s="110" t="s">
+      <x:c r="A160" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B160" t="s">
@@ -12548,7 +9043,7 @@
       </x:c>
     </x:row>
     <x:row r="164" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A164" s="111" t="s">
+      <x:c r="A164" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B164" t="s">
@@ -12748,7 +9243,7 @@
       </x:c>
     </x:row>
     <x:row r="168" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A168" s="112" t="s">
+      <x:c r="A168" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B168" t="s">
@@ -12898,7 +9393,7 @@
       </x:c>
     </x:row>
     <x:row r="171" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A171" s="113" t="s">
+      <x:c r="A171" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B171" t="s">
@@ -12948,7 +9443,7 @@
       </x:c>
     </x:row>
     <x:row r="172" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A172" s="114" t="s">
+      <x:c r="A172" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B172" t="s">
@@ -12998,7 +9493,7 @@
       </x:c>
     </x:row>
     <x:row r="173" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A173" s="115" t="s">
+      <x:c r="A173" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B173" t="s">
@@ -13048,7 +9543,7 @@
       </x:c>
     </x:row>
     <x:row r="174" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A174" s="116" t="s">
+      <x:c r="A174" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B174" t="s">
@@ -13098,7 +9593,7 @@
       </x:c>
     </x:row>
     <x:row r="175" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A175" s="117" t="s">
+      <x:c r="A175" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B175" t="s">
@@ -13148,7 +9643,7 @@
       </x:c>
     </x:row>
     <x:row r="176" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A176" s="118" t="s">
+      <x:c r="A176" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B176" t="s">
@@ -13248,7 +9743,7 @@
       </x:c>
     </x:row>
     <x:row r="178" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A178" s="119" t="s">
+      <x:c r="A178" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B178" t="s">
@@ -13298,7 +9793,7 @@
       </x:c>
     </x:row>
     <x:row r="179" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A179" s="120" t="s">
+      <x:c r="A179" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B179" t="s">
@@ -13348,7 +9843,7 @@
       </x:c>
     </x:row>
     <x:row r="180" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A180" s="121" t="s">
+      <x:c r="A180" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B180" t="s">
@@ -13398,7 +9893,7 @@
       </x:c>
     </x:row>
     <x:row r="181" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A181" s="122" t="s">
+      <x:c r="A181" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B181" t="s">
@@ -13448,7 +9943,7 @@
       </x:c>
     </x:row>
     <x:row r="182" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A182" s="123" t="s">
+      <x:c r="A182" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B182" t="s">
@@ -13498,7 +9993,7 @@
       </x:c>
     </x:row>
     <x:row r="183" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A183" s="124" t="s">
+      <x:c r="A183" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B183" t="s">
@@ -13548,7 +10043,7 @@
       </x:c>
     </x:row>
     <x:row r="184" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A184" s="125" t="s">
+      <x:c r="A184" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B184" t="s">
@@ -13598,7 +10093,7 @@
       </x:c>
     </x:row>
     <x:row r="185" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A185" s="126" t="s">
+      <x:c r="A185" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B185" t="s">
@@ -13648,7 +10143,7 @@
       </x:c>
     </x:row>
     <x:row r="186" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A186" s="127" t="s">
+      <x:c r="A186" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B186" t="s">
@@ -13698,7 +10193,7 @@
       </x:c>
     </x:row>
     <x:row r="187" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A187" s="128" t="s">
+      <x:c r="A187" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B187" t="s">
@@ -13748,7 +10243,7 @@
       </x:c>
     </x:row>
     <x:row r="188" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A188" s="129" t="s">
+      <x:c r="A188" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B188" t="s">
@@ -13848,7 +10343,7 @@
       </x:c>
     </x:row>
     <x:row r="190" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A190" s="130" t="s">
+      <x:c r="A190" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B190" t="s">
@@ -13948,7 +10443,7 @@
       </x:c>
     </x:row>
     <x:row r="192" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A192" s="131" t="s">
+      <x:c r="A192" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B192" t="s">
@@ -13998,7 +10493,7 @@
       </x:c>
     </x:row>
     <x:row r="193" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A193" s="132" t="s">
+      <x:c r="A193" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B193" t="s">
@@ -14048,7 +10543,7 @@
       </x:c>
     </x:row>
     <x:row r="194" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A194" s="133" t="s">
+      <x:c r="A194" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B194" t="s">
@@ -14148,7 +10643,7 @@
       </x:c>
     </x:row>
     <x:row r="196" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A196" s="134" t="s">
+      <x:c r="A196" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B196" t="s">
@@ -14198,7 +10693,7 @@
       </x:c>
     </x:row>
     <x:row r="197" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A197" s="135" t="s">
+      <x:c r="A197" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B197" t="s">
@@ -14248,7 +10743,7 @@
       </x:c>
     </x:row>
     <x:row r="198" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A198" s="136" t="s">
+      <x:c r="A198" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B198" t="s">
@@ -14298,7 +10793,7 @@
       </x:c>
     </x:row>
     <x:row r="199" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A199" s="137" t="s">
+      <x:c r="A199" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B199" t="s">
@@ -14348,7 +10843,7 @@
       </x:c>
     </x:row>
     <x:row r="200" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A200" s="138" t="s">
+      <x:c r="A200" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B200" t="s">
@@ -14398,7 +10893,7 @@
       </x:c>
     </x:row>
     <x:row r="201" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A201" s="139" t="s">
+      <x:c r="A201" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B201" t="s">
@@ -14548,7 +11043,7 @@
       </x:c>
     </x:row>
     <x:row r="204" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A204" s="140" t="s">
+      <x:c r="A204" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B204" t="s">
@@ -14598,7 +11093,7 @@
       </x:c>
     </x:row>
     <x:row r="205" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A205" s="141" t="s">
+      <x:c r="A205" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B205" t="s">
@@ -14698,7 +11193,7 @@
       </x:c>
     </x:row>
     <x:row r="207" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A207" s="142" t="s">
+      <x:c r="A207" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B207" t="s">
@@ -14748,7 +11243,7 @@
       </x:c>
     </x:row>
     <x:row r="208" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A208" s="143" t="s">
+      <x:c r="A208" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B208" t="s">
@@ -14798,7 +11293,7 @@
       </x:c>
     </x:row>
     <x:row r="209" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A209" s="144" t="s">
+      <x:c r="A209" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B209" t="s">
@@ -14848,7 +11343,7 @@
       </x:c>
     </x:row>
     <x:row r="210" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A210" s="145" t="s">
+      <x:c r="A210" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B210" t="s">
@@ -14948,7 +11443,7 @@
       </x:c>
     </x:row>
     <x:row r="212" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A212" s="146" t="s">
+      <x:c r="A212" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B212" t="s">
@@ -14998,7 +11493,7 @@
       </x:c>
     </x:row>
     <x:row r="213" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A213" s="147" t="s">
+      <x:c r="A213" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B213" t="s">
@@ -15048,7 +11543,7 @@
       </x:c>
     </x:row>
     <x:row r="214" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A214" s="148" t="s">
+      <x:c r="A214" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B214" t="s">
@@ -15098,7 +11593,7 @@
       </x:c>
     </x:row>
     <x:row r="215" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A215" s="149" t="s">
+      <x:c r="A215" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B215" t="s">
@@ -15148,7 +11643,7 @@
       </x:c>
     </x:row>
     <x:row r="216" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A216" s="150" t="s">
+      <x:c r="A216" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B216" t="s">
@@ -15198,7 +11693,7 @@
       </x:c>
     </x:row>
     <x:row r="217" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A217" s="151" t="s">
+      <x:c r="A217" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B217" t="s">
@@ -15248,7 +11743,7 @@
       </x:c>
     </x:row>
     <x:row r="218" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A218" s="152" t="s">
+      <x:c r="A218" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B218" t="s">
@@ -15398,7 +11893,7 @@
       </x:c>
     </x:row>
     <x:row r="221" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A221" s="153" t="s">
+      <x:c r="A221" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B221" t="s">
@@ -15448,7 +11943,7 @@
       </x:c>
     </x:row>
     <x:row r="222" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A222" s="154" t="s">
+      <x:c r="A222" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B222" t="s">
@@ -15548,7 +12043,7 @@
       </x:c>
     </x:row>
     <x:row r="224" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A224" s="155" t="s">
+      <x:c r="A224" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B224" t="s">
@@ -15698,7 +12193,7 @@
       </x:c>
     </x:row>
     <x:row r="227" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A227" s="156" t="s">
+      <x:c r="A227" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B227" t="s">
@@ -15748,7 +12243,7 @@
       </x:c>
     </x:row>
     <x:row r="228" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A228" s="157" t="s">
+      <x:c r="A228" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B228" t="s">
@@ -15798,7 +12293,7 @@
       </x:c>
     </x:row>
     <x:row r="229" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A229" s="158" t="s">
+      <x:c r="A229" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B229" t="s">
@@ -15848,7 +12343,7 @@
       </x:c>
     </x:row>
     <x:row r="230" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A230" s="159" t="s">
+      <x:c r="A230" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B230" t="s">
@@ -15898,7 +12393,7 @@
       </x:c>
     </x:row>
     <x:row r="231" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A231" s="160" t="s">
+      <x:c r="A231" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B231" t="s">
@@ -15948,7 +12443,7 @@
       </x:c>
     </x:row>
     <x:row r="232" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A232" s="161" t="s">
+      <x:c r="A232" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B232" t="s">
@@ -15998,7 +12493,7 @@
       </x:c>
     </x:row>
     <x:row r="233" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A233" s="162" t="s">
+      <x:c r="A233" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B233" t="s">
@@ -16098,7 +12593,7 @@
       </x:c>
     </x:row>
     <x:row r="235" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A235" s="163" t="s">
+      <x:c r="A235" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B235" t="s">
@@ -16198,7 +12693,7 @@
       </x:c>
     </x:row>
     <x:row r="237" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A237" s="164" t="s">
+      <x:c r="A237" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B237" t="s">
@@ -16248,7 +12743,7 @@
       </x:c>
     </x:row>
     <x:row r="238" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A238" s="165" t="s">
+      <x:c r="A238" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B238" t="s">
@@ -16398,7 +12893,7 @@
       </x:c>
     </x:row>
     <x:row r="241" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A241" s="166" t="s">
+      <x:c r="A241" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B241" t="s">
@@ -16448,7 +12943,7 @@
       </x:c>
     </x:row>
     <x:row r="242" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A242" s="167" t="s">
+      <x:c r="A242" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B242" t="s">
@@ -16498,7 +12993,7 @@
       </x:c>
     </x:row>
     <x:row r="243" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A243" s="168" t="s">
+      <x:c r="A243" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B243" t="s">
@@ -16548,7 +13043,7 @@
       </x:c>
     </x:row>
     <x:row r="244" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A244" s="169" t="s">
+      <x:c r="A244" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B244" t="s">
@@ -16598,7 +13093,7 @@
       </x:c>
     </x:row>
     <x:row r="245" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A245" s="170" t="s">
+      <x:c r="A245" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B245" t="s">
@@ -16648,7 +13143,7 @@
       </x:c>
     </x:row>
     <x:row r="246" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A246" s="171" t="s">
+      <x:c r="A246" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B246" t="s">
@@ -16698,7 +13193,7 @@
       </x:c>
     </x:row>
     <x:row r="247" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A247" s="172" t="s">
+      <x:c r="A247" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B247" t="s">
@@ -16848,7 +13343,7 @@
       </x:c>
     </x:row>
     <x:row r="250" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A250" s="173" t="s">
+      <x:c r="A250" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B250" t="s">
@@ -16898,7 +13393,7 @@
       </x:c>
     </x:row>
     <x:row r="251" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A251" s="174" t="s">
+      <x:c r="A251" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B251" t="s">
@@ -16948,7 +13443,7 @@
       </x:c>
     </x:row>
     <x:row r="252" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A252" s="175" t="s">
+      <x:c r="A252" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B252" t="s">
@@ -16998,7 +13493,7 @@
       </x:c>
     </x:row>
     <x:row r="253" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A253" s="176" t="s">
+      <x:c r="A253" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B253" t="s">
@@ -17048,7 +13543,7 @@
       </x:c>
     </x:row>
     <x:row r="254" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A254" s="177" t="s">
+      <x:c r="A254" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B254" t="s">
@@ -17098,7 +13593,7 @@
       </x:c>
     </x:row>
     <x:row r="255" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A255" s="178" t="s">
+      <x:c r="A255" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B255" t="s">
@@ -17198,7 +13693,7 @@
       </x:c>
     </x:row>
     <x:row r="257" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A257" s="179" t="s">
+      <x:c r="A257" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B257" t="s">
@@ -17248,7 +13743,7 @@
       </x:c>
     </x:row>
     <x:row r="258" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A258" s="180" t="s">
+      <x:c r="A258" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B258" t="s">
@@ -17298,7 +13793,7 @@
       </x:c>
     </x:row>
     <x:row r="259" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A259" s="181" t="s">
+      <x:c r="A259" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B259" t="s">
@@ -17448,7 +13943,7 @@
       </x:c>
     </x:row>
     <x:row r="262" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A262" s="182" t="s">
+      <x:c r="A262" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B262" t="s">
@@ -17498,7 +13993,7 @@
       </x:c>
     </x:row>
     <x:row r="263" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A263" s="183" t="s">
+      <x:c r="A263" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B263" t="s">
@@ -17548,7 +14043,7 @@
       </x:c>
     </x:row>
     <x:row r="264" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A264" s="184" t="s">
+      <x:c r="A264" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B264" t="s">
@@ -17598,7 +14093,7 @@
       </x:c>
     </x:row>
     <x:row r="265" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A265" s="185" t="s">
+      <x:c r="A265" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B265" t="s">
@@ -17648,7 +14143,7 @@
       </x:c>
     </x:row>
     <x:row r="266" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A266" s="186" t="s">
+      <x:c r="A266" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B266" t="s">
@@ -17698,7 +14193,7 @@
       </x:c>
     </x:row>
     <x:row r="267" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A267" s="187" t="s">
+      <x:c r="A267" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B267" t="s">
@@ -17748,7 +14243,7 @@
       </x:c>
     </x:row>
     <x:row r="268" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A268" s="188" t="s">
+      <x:c r="A268" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B268" t="s">
@@ -17798,7 +14293,7 @@
       </x:c>
     </x:row>
     <x:row r="269" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A269" s="189" t="s">
+      <x:c r="A269" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B269" t="s">
@@ -17848,7 +14343,7 @@
       </x:c>
     </x:row>
     <x:row r="270" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A270" s="190" t="s">
+      <x:c r="A270" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B270" t="s">
@@ -17898,7 +14393,7 @@
       </x:c>
     </x:row>
     <x:row r="271" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A271" s="191" t="s">
+      <x:c r="A271" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B271" t="s">
@@ -17948,7 +14443,7 @@
       </x:c>
     </x:row>
     <x:row r="272" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A272" s="192" t="s">
+      <x:c r="A272" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B272" t="s">
@@ -17998,7 +14493,7 @@
       </x:c>
     </x:row>
     <x:row r="273" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A273" s="193" t="s">
+      <x:c r="A273" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B273" t="s">
@@ -18048,7 +14543,7 @@
       </x:c>
     </x:row>
     <x:row r="274" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A274" s="194" t="s">
+      <x:c r="A274" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B274" t="s">
@@ -18098,7 +14593,7 @@
       </x:c>
     </x:row>
     <x:row r="275" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A275" s="195" t="s">
+      <x:c r="A275" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B275" t="s">
@@ -18148,7 +14643,7 @@
       </x:c>
     </x:row>
     <x:row r="276" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A276" s="196" t="s">
+      <x:c r="A276" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B276" t="s">
@@ -18298,7 +14793,7 @@
       </x:c>
     </x:row>
     <x:row r="279" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A279" s="197" t="s">
+      <x:c r="A279" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B279" t="s">
@@ -18348,7 +14843,7 @@
       </x:c>
     </x:row>
     <x:row r="280" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A280" s="198" t="s">
+      <x:c r="A280" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B280" t="s">
@@ -18448,7 +14943,7 @@
       </x:c>
     </x:row>
     <x:row r="282" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A282" s="199" t="s">
+      <x:c r="A282" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B282" t="s">
@@ -18498,7 +14993,7 @@
       </x:c>
     </x:row>
     <x:row r="283" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A283" s="200" t="s">
+      <x:c r="A283" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B283" t="s">
@@ -18548,7 +15043,7 @@
       </x:c>
     </x:row>
     <x:row r="284" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A284" s="201" t="s">
+      <x:c r="A284" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B284" t="s">
@@ -18648,7 +15143,7 @@
       </x:c>
     </x:row>
     <x:row r="286" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A286" s="202" t="s">
+      <x:c r="A286" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B286" t="s">
@@ -18748,7 +15243,7 @@
       </x:c>
     </x:row>
     <x:row r="288" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A288" s="203" t="s">
+      <x:c r="A288" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B288" t="s">
@@ -18898,7 +15393,7 @@
       </x:c>
     </x:row>
     <x:row r="291" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A291" s="204" t="s">
+      <x:c r="A291" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B291" t="s">
@@ -18948,7 +15443,7 @@
       </x:c>
     </x:row>
     <x:row r="292" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A292" s="205" t="s">
+      <x:c r="A292" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B292" t="s">
@@ -18998,7 +15493,7 @@
       </x:c>
     </x:row>
     <x:row r="293" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A293" s="206" t="s">
+      <x:c r="A293" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B293" t="s">
@@ -19048,7 +15543,7 @@
       </x:c>
     </x:row>
     <x:row r="294" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A294" s="207" t="s">
+      <x:c r="A294" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B294" t="s">
@@ -19098,7 +15593,7 @@
       </x:c>
     </x:row>
     <x:row r="295" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A295" s="208" t="s">
+      <x:c r="A295" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B295" t="s">
@@ -19148,7 +15643,7 @@
       </x:c>
     </x:row>
     <x:row r="296" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A296" s="209" t="s">
+      <x:c r="A296" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B296" t="s">
@@ -19198,7 +15693,7 @@
       </x:c>
     </x:row>
     <x:row r="297" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A297" s="210" t="s">
+      <x:c r="A297" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B297" t="s">
@@ -19248,7 +15743,7 @@
       </x:c>
     </x:row>
     <x:row r="298" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A298" s="211" t="s">
+      <x:c r="A298" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B298" t="s">
@@ -19298,7 +15793,7 @@
       </x:c>
     </x:row>
     <x:row r="299" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A299" s="212" t="s">
+      <x:c r="A299" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B299" t="s">
@@ -19348,7 +15843,7 @@
       </x:c>
     </x:row>
     <x:row r="300" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A300" s="213" t="s">
+      <x:c r="A300" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B300" t="s">
@@ -19448,7 +15943,7 @@
       </x:c>
     </x:row>
     <x:row r="302" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A302" s="214" t="s">
+      <x:c r="A302" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B302" t="s">
@@ -19498,7 +15993,7 @@
       </x:c>
     </x:row>
     <x:row r="303" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A303" s="215" t="s">
+      <x:c r="A303" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B303" t="s">
@@ -19548,7 +16043,7 @@
       </x:c>
     </x:row>
     <x:row r="304" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A304" s="216" t="s">
+      <x:c r="A304" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B304" t="s">
@@ -19598,7 +16093,7 @@
       </x:c>
     </x:row>
     <x:row r="305" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A305" s="217" t="s">
+      <x:c r="A305" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B305" t="s">
@@ -19648,7 +16143,7 @@
       </x:c>
     </x:row>
     <x:row r="306" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A306" s="218" t="s">
+      <x:c r="A306" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B306" t="s">
@@ -19698,7 +16193,7 @@
       </x:c>
     </x:row>
     <x:row r="307" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A307" s="219" t="s">
+      <x:c r="A307" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B307" t="s">
@@ -19748,7 +16243,7 @@
       </x:c>
     </x:row>
     <x:row r="308" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A308" s="220" t="s">
+      <x:c r="A308" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B308" t="s">
@@ -19798,7 +16293,7 @@
       </x:c>
     </x:row>
     <x:row r="309" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A309" s="221" t="s">
+      <x:c r="A309" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B309" t="s">
@@ -19848,7 +16343,7 @@
       </x:c>
     </x:row>
     <x:row r="310" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A310" s="222" t="s">
+      <x:c r="A310" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B310" t="s">
@@ -19898,7 +16393,7 @@
       </x:c>
     </x:row>
     <x:row r="311" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A311" s="223" t="s">
+      <x:c r="A311" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B311" t="s">
@@ -19948,7 +16443,7 @@
       </x:c>
     </x:row>
     <x:row r="312" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A312" s="224" t="s">
+      <x:c r="A312" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B312" t="s">
@@ -19998,7 +16493,7 @@
       </x:c>
     </x:row>
     <x:row r="313" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A313" s="225" t="s">
+      <x:c r="A313" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B313" t="s">
@@ -20148,7 +16643,7 @@
       </x:c>
     </x:row>
     <x:row r="316" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A316" s="226" t="s">
+      <x:c r="A316" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B316" t="s">
@@ -20298,7 +16793,7 @@
       </x:c>
     </x:row>
     <x:row r="319" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A319" s="227" t="s">
+      <x:c r="A319" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B319" t="s">
@@ -20348,7 +16843,7 @@
       </x:c>
     </x:row>
     <x:row r="320" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A320" s="228" t="s">
+      <x:c r="A320" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B320" t="s">
@@ -20398,7 +16893,7 @@
       </x:c>
     </x:row>
     <x:row r="321" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A321" s="229" t="s">
+      <x:c r="A321" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B321" t="s">
@@ -20448,7 +16943,7 @@
       </x:c>
     </x:row>
     <x:row r="322" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A322" s="230" t="s">
+      <x:c r="A322" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B322" t="s">
@@ -20498,7 +16993,7 @@
       </x:c>
     </x:row>
     <x:row r="323" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A323" s="231" t="s">
+      <x:c r="A323" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B323" t="s">
@@ -20648,7 +17143,7 @@
       </x:c>
     </x:row>
     <x:row r="326" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A326" s="232" t="s">
+      <x:c r="A326" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B326" t="s">
@@ -20698,7 +17193,7 @@
       </x:c>
     </x:row>
     <x:row r="327" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A327" s="233" t="s">
+      <x:c r="A327" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B327" t="s">
@@ -20748,7 +17243,7 @@
       </x:c>
     </x:row>
     <x:row r="328" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A328" s="234" t="s">
+      <x:c r="A328" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B328" t="s">
@@ -20798,7 +17293,7 @@
       </x:c>
     </x:row>
     <x:row r="329" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A329" s="235" t="s">
+      <x:c r="A329" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B329" t="s">
@@ -20848,7 +17343,7 @@
       </x:c>
     </x:row>
     <x:row r="330" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A330" s="236" t="s">
+      <x:c r="A330" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B330" t="s">
@@ -20898,7 +17393,7 @@
       </x:c>
     </x:row>
     <x:row r="331" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A331" s="237" t="s">
+      <x:c r="A331" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B331" t="s">
@@ -20948,7 +17443,7 @@
       </x:c>
     </x:row>
     <x:row r="332" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A332" s="238" t="s">
+      <x:c r="A332" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B332" t="s">
@@ -21048,7 +17543,7 @@
       </x:c>
     </x:row>
     <x:row r="334" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A334" s="239" t="s">
+      <x:c r="A334" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B334" t="s">
@@ -21098,7 +17593,7 @@
       </x:c>
     </x:row>
     <x:row r="335" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A335" s="240" t="s">
+      <x:c r="A335" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B335" t="s">
@@ -21198,7 +17693,7 @@
       </x:c>
     </x:row>
     <x:row r="337" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A337" s="241" t="s">
+      <x:c r="A337" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B337" t="s">
@@ -21248,7 +17743,7 @@
       </x:c>
     </x:row>
     <x:row r="338" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A338" s="242" t="s">
+      <x:c r="A338" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B338" t="s">
@@ -21298,7 +17793,7 @@
       </x:c>
     </x:row>
     <x:row r="339" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A339" s="243" t="s">
+      <x:c r="A339" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B339" t="s">
@@ -21348,7 +17843,7 @@
       </x:c>
     </x:row>
     <x:row r="340" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A340" s="244" t="s">
+      <x:c r="A340" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B340" t="s">
@@ -21398,7 +17893,7 @@
       </x:c>
     </x:row>
     <x:row r="341" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A341" s="245" t="s">
+      <x:c r="A341" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B341" t="s">
@@ -21498,7 +17993,7 @@
       </x:c>
     </x:row>
     <x:row r="343" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A343" s="246" t="s">
+      <x:c r="A343" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B343" t="s">
@@ -21548,7 +18043,7 @@
       </x:c>
     </x:row>
     <x:row r="344" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A344" s="247" t="s">
+      <x:c r="A344" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B344" t="s">
@@ -21598,7 +18093,7 @@
       </x:c>
     </x:row>
     <x:row r="345" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A345" s="248" t="s">
+      <x:c r="A345" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B345" t="s">
@@ -21698,7 +18193,7 @@
       </x:c>
     </x:row>
     <x:row r="347" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A347" s="249" t="s">
+      <x:c r="A347" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B347" t="s">
@@ -21748,7 +18243,7 @@
       </x:c>
     </x:row>
     <x:row r="348" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A348" s="250" t="s">
+      <x:c r="A348" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B348" t="s">
@@ -21798,7 +18293,7 @@
       </x:c>
     </x:row>
     <x:row r="349" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A349" s="251" t="s">
+      <x:c r="A349" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B349" t="s">
@@ -21848,7 +18343,7 @@
       </x:c>
     </x:row>
     <x:row r="350" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A350" s="252" t="s">
+      <x:c r="A350" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B350" t="s">
@@ -21948,7 +18443,7 @@
       </x:c>
     </x:row>
     <x:row r="352" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A352" s="253" t="s">
+      <x:c r="A352" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B352" t="s">
@@ -21998,7 +18493,7 @@
       </x:c>
     </x:row>
     <x:row r="353" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A353" s="254" t="s">
+      <x:c r="A353" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B353" t="s">
@@ -22098,7 +18593,7 @@
       </x:c>
     </x:row>
     <x:row r="355" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A355" s="255" t="s">
+      <x:c r="A355" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B355" t="s">
@@ -22198,7 +18693,7 @@
       </x:c>
     </x:row>
     <x:row r="357" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A357" s="256" t="s">
+      <x:c r="A357" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B357" t="s">
@@ -22248,7 +18743,7 @@
       </x:c>
     </x:row>
     <x:row r="358" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A358" s="257" t="s">
+      <x:c r="A358" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B358" t="s">
@@ -22298,7 +18793,7 @@
       </x:c>
     </x:row>
     <x:row r="359" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A359" s="258" t="s">
+      <x:c r="A359" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B359" t="s">
@@ -22348,7 +18843,7 @@
       </x:c>
     </x:row>
     <x:row r="360" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A360" s="259" t="s">
+      <x:c r="A360" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B360" t="s">
@@ -22398,7 +18893,7 @@
       </x:c>
     </x:row>
     <x:row r="361" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A361" s="260" t="s">
+      <x:c r="A361" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B361" t="s">
@@ -22448,7 +18943,7 @@
       </x:c>
     </x:row>
     <x:row r="362" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A362" s="261" t="s">
+      <x:c r="A362" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B362" t="s">
@@ -22548,7 +19043,7 @@
       </x:c>
     </x:row>
     <x:row r="364" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A364" s="262" t="s">
+      <x:c r="A364" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B364" t="s">
@@ -22598,7 +19093,7 @@
       </x:c>
     </x:row>
     <x:row r="365" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A365" s="263" t="s">
+      <x:c r="A365" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B365" t="s">
@@ -22648,7 +19143,7 @@
       </x:c>
     </x:row>
     <x:row r="366" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A366" s="264" t="s">
+      <x:c r="A366" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B366" t="s">
@@ -22698,7 +19193,7 @@
       </x:c>
     </x:row>
     <x:row r="367" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A367" s="265" t="s">
+      <x:c r="A367" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B367" t="s">
@@ -22748,7 +19243,7 @@
       </x:c>
     </x:row>
     <x:row r="368" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A368" s="266" t="s">
+      <x:c r="A368" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B368" t="s">
@@ -22798,7 +19293,7 @@
       </x:c>
     </x:row>
     <x:row r="369" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A369" s="267" t="s">
+      <x:c r="A369" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B369" t="s">
@@ -22848,7 +19343,7 @@
       </x:c>
     </x:row>
     <x:row r="370" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A370" s="268" t="s">
+      <x:c r="A370" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B370" t="s">
@@ -22898,7 +19393,7 @@
       </x:c>
     </x:row>
     <x:row r="371" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A371" s="269" t="s">
+      <x:c r="A371" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B371" t="s">
@@ -22998,7 +19493,7 @@
       </x:c>
     </x:row>
     <x:row r="373" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A373" s="270" t="s">
+      <x:c r="A373" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B373" t="s">
@@ -23048,7 +19543,7 @@
       </x:c>
     </x:row>
     <x:row r="374" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A374" s="271" t="s">
+      <x:c r="A374" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B374" t="s">
@@ -23098,7 +19593,7 @@
       </x:c>
     </x:row>
     <x:row r="375" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A375" s="272" t="s">
+      <x:c r="A375" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B375" t="s">
@@ -23148,7 +19643,7 @@
       </x:c>
     </x:row>
     <x:row r="376" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A376" s="273" t="s">
+      <x:c r="A376" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B376" t="s">
@@ -23198,7 +19693,7 @@
       </x:c>
     </x:row>
     <x:row r="377" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A377" s="274" t="s">
+      <x:c r="A377" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B377" t="s">
@@ -23248,7 +19743,7 @@
       </x:c>
     </x:row>
     <x:row r="378" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A378" s="275" t="s">
+      <x:c r="A378" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B378" t="s">
@@ -23298,7 +19793,7 @@
       </x:c>
     </x:row>
     <x:row r="379" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A379" s="276" t="s">
+      <x:c r="A379" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B379" t="s">
@@ -23348,7 +19843,7 @@
       </x:c>
     </x:row>
     <x:row r="380" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A380" s="277" t="s">
+      <x:c r="A380" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B380" t="s">
@@ -23398,7 +19893,7 @@
       </x:c>
     </x:row>
     <x:row r="381" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A381" s="278" t="s">
+      <x:c r="A381" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B381" t="s">
@@ -23448,7 +19943,7 @@
       </x:c>
     </x:row>
     <x:row r="382" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A382" s="279" t="s">
+      <x:c r="A382" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B382" t="s">
@@ -23498,7 +19993,7 @@
       </x:c>
     </x:row>
     <x:row r="383" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A383" s="280" t="s">
+      <x:c r="A383" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B383" t="s">
@@ -23548,7 +20043,7 @@
       </x:c>
     </x:row>
     <x:row r="384" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A384" s="281" t="s">
+      <x:c r="A384" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B384" t="s">
@@ -23648,7 +20143,7 @@
       </x:c>
     </x:row>
     <x:row r="386" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A386" s="282" t="s">
+      <x:c r="A386" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B386" t="s">
@@ -23698,7 +20193,7 @@
       </x:c>
     </x:row>
     <x:row r="387" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A387" s="283" t="s">
+      <x:c r="A387" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B387" t="s">
@@ -23748,7 +20243,7 @@
       </x:c>
     </x:row>
     <x:row r="388" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A388" s="284" t="s">
+      <x:c r="A388" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B388" t="s">
@@ -23798,7 +20293,7 @@
       </x:c>
     </x:row>
     <x:row r="389" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A389" s="285" t="s">
+      <x:c r="A389" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B389" t="s">
@@ -23848,7 +20343,7 @@
       </x:c>
     </x:row>
     <x:row r="390" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A390" s="286" t="s">
+      <x:c r="A390" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B390" t="s">
@@ -23898,7 +20393,7 @@
       </x:c>
     </x:row>
     <x:row r="391" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A391" s="287" t="s">
+      <x:c r="A391" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B391" t="s">
@@ -23948,7 +20443,7 @@
       </x:c>
     </x:row>
     <x:row r="392" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A392" s="288" t="s">
+      <x:c r="A392" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B392" t="s">
@@ -23998,7 +20493,7 @@
       </x:c>
     </x:row>
     <x:row r="393" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A393" s="289" t="s">
+      <x:c r="A393" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B393" t="s">
@@ -24048,7 +20543,7 @@
       </x:c>
     </x:row>
     <x:row r="394" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A394" s="290" t="s">
+      <x:c r="A394" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B394" t="s">
@@ -24098,7 +20593,7 @@
       </x:c>
     </x:row>
     <x:row r="395" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A395" s="291" t="s">
+      <x:c r="A395" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B395" t="s">
@@ -24148,7 +20643,7 @@
       </x:c>
     </x:row>
     <x:row r="396" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A396" s="292" t="s">
+      <x:c r="A396" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B396" t="s">
@@ -24198,7 +20693,7 @@
       </x:c>
     </x:row>
     <x:row r="397" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A397" s="293" t="s">
+      <x:c r="A397" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B397" t="s">
@@ -24248,7 +20743,7 @@
       </x:c>
     </x:row>
     <x:row r="398" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A398" s="294" t="s">
+      <x:c r="A398" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B398" t="s">
@@ -24298,7 +20793,7 @@
       </x:c>
     </x:row>
     <x:row r="399" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A399" s="295" t="s">
+      <x:c r="A399" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B399" t="s">
@@ -24348,7 +20843,7 @@
       </x:c>
     </x:row>
     <x:row r="400" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A400" s="296" t="s">
+      <x:c r="A400" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B400" t="s">
@@ -24398,7 +20893,7 @@
       </x:c>
     </x:row>
     <x:row r="401" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A401" s="297" t="s">
+      <x:c r="A401" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B401" t="s">
@@ -24498,7 +20993,7 @@
       </x:c>
     </x:row>
     <x:row r="403" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A403" s="298" t="s">
+      <x:c r="A403" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B403" t="s">
@@ -24548,7 +21043,7 @@
       </x:c>
     </x:row>
     <x:row r="404" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A404" s="299" t="s">
+      <x:c r="A404" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B404" t="s">
@@ -24598,7 +21093,7 @@
       </x:c>
     </x:row>
     <x:row r="405" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A405" s="300" t="s">
+      <x:c r="A405" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B405" t="s">
@@ -24698,7 +21193,7 @@
       </x:c>
     </x:row>
     <x:row r="407" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A407" s="301" t="s">
+      <x:c r="A407" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B407" t="s">
@@ -24748,7 +21243,7 @@
       </x:c>
     </x:row>
     <x:row r="408" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A408" s="302" t="s">
+      <x:c r="A408" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B408" t="s">
@@ -24798,7 +21293,7 @@
       </x:c>
     </x:row>
     <x:row r="409" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A409" s="303" t="s">
+      <x:c r="A409" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B409" t="s">
@@ -24948,7 +21443,7 @@
       </x:c>
     </x:row>
     <x:row r="412" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A412" s="304" t="s">
+      <x:c r="A412" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B412" t="s">
@@ -25048,7 +21543,7 @@
       </x:c>
     </x:row>
     <x:row r="414" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A414" s="305" t="s">
+      <x:c r="A414" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B414" t="s">
@@ -25098,7 +21593,7 @@
       </x:c>
     </x:row>
     <x:row r="415" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A415" s="306" t="s">
+      <x:c r="A415" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B415" t="s">
@@ -25148,7 +21643,7 @@
       </x:c>
     </x:row>
     <x:row r="416" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A416" s="307" t="s">
+      <x:c r="A416" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B416" t="s">
@@ -25198,7 +21693,7 @@
       </x:c>
     </x:row>
     <x:row r="417" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A417" s="308" t="s">
+      <x:c r="A417" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B417" t="s">
@@ -25248,7 +21743,7 @@
       </x:c>
     </x:row>
     <x:row r="418" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A418" s="309" t="s">
+      <x:c r="A418" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B418" t="s">
@@ -25298,7 +21793,7 @@
       </x:c>
     </x:row>
     <x:row r="419" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A419" s="310" t="s">
+      <x:c r="A419" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B419" t="s">
@@ -25398,7 +21893,7 @@
       </x:c>
     </x:row>
     <x:row r="421" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A421" s="311" t="s">
+      <x:c r="A421" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B421" t="s">
@@ -25548,7 +22043,7 @@
       </x:c>
     </x:row>
     <x:row r="424" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A424" s="312" t="s">
+      <x:c r="A424" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B424" t="s">
@@ -25598,7 +22093,7 @@
       </x:c>
     </x:row>
     <x:row r="425" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A425" s="313" t="s">
+      <x:c r="A425" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B425" t="s">
@@ -25648,7 +22143,7 @@
       </x:c>
     </x:row>
     <x:row r="426" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A426" s="314" t="s">
+      <x:c r="A426" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B426" t="s">
@@ -25798,7 +22293,7 @@
       </x:c>
     </x:row>
     <x:row r="429" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A429" s="315" t="s">
+      <x:c r="A429" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B429" t="s">
@@ -25898,7 +22393,7 @@
       </x:c>
     </x:row>
     <x:row r="431" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A431" s="316" t="s">
+      <x:c r="A431" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B431" t="s">
@@ -25948,7 +22443,7 @@
       </x:c>
     </x:row>
     <x:row r="432" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A432" s="317" t="s">
+      <x:c r="A432" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B432" t="s">
@@ -26048,7 +22543,7 @@
       </x:c>
     </x:row>
     <x:row r="434" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A434" s="318" t="s">
+      <x:c r="A434" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B434" t="s">
@@ -26148,7 +22643,7 @@
       </x:c>
     </x:row>
     <x:row r="436" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A436" s="319" t="s">
+      <x:c r="A436" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B436" t="s">
@@ -26248,7 +22743,7 @@
       </x:c>
     </x:row>
     <x:row r="438" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A438" s="320" t="s">
+      <x:c r="A438" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B438" t="s">
@@ -26298,7 +22793,7 @@
       </x:c>
     </x:row>
     <x:row r="439" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A439" s="321" t="s">
+      <x:c r="A439" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B439" t="s">
@@ -26348,7 +22843,7 @@
       </x:c>
     </x:row>
     <x:row r="440" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A440" s="322" t="s">
+      <x:c r="A440" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B440" t="s">
@@ -26398,7 +22893,7 @@
       </x:c>
     </x:row>
     <x:row r="441" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A441" s="323" t="s">
+      <x:c r="A441" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B441" t="s">
@@ -26448,7 +22943,7 @@
       </x:c>
     </x:row>
     <x:row r="442" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A442" s="324" t="s">
+      <x:c r="A442" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B442" t="s">
@@ -26498,7 +22993,7 @@
       </x:c>
     </x:row>
     <x:row r="443" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A443" s="325" t="s">
+      <x:c r="A443" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B443" t="s">
@@ -26598,7 +23093,7 @@
       </x:c>
     </x:row>
     <x:row r="445" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A445" s="326" t="s">
+      <x:c r="A445" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B445" t="s">
@@ -26648,7 +23143,7 @@
       </x:c>
     </x:row>
     <x:row r="446" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A446" s="327" t="s">
+      <x:c r="A446" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B446" t="s">
@@ -26698,7 +23193,7 @@
       </x:c>
     </x:row>
     <x:row r="447" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A447" s="328" t="s">
+      <x:c r="A447" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B447" t="s">
@@ -26748,7 +23243,7 @@
       </x:c>
     </x:row>
     <x:row r="448" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A448" s="329" t="s">
+      <x:c r="A448" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B448" t="s">
@@ -26848,7 +23343,7 @@
       </x:c>
     </x:row>
     <x:row r="450" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A450" s="330" t="s">
+      <x:c r="A450" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B450" t="s">
@@ -26898,7 +23393,7 @@
       </x:c>
     </x:row>
     <x:row r="451" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A451" s="331" t="s">
+      <x:c r="A451" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B451" t="s">
@@ -26948,7 +23443,7 @@
       </x:c>
     </x:row>
     <x:row r="452" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A452" s="332" t="s">
+      <x:c r="A452" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B452" t="s">
@@ -26998,7 +23493,7 @@
       </x:c>
     </x:row>
     <x:row r="453" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A453" s="333" t="s">
+      <x:c r="A453" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B453" t="s">
@@ -27048,7 +23543,7 @@
       </x:c>
     </x:row>
     <x:row r="454" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A454" s="334" t="s">
+      <x:c r="A454" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B454" t="s">
@@ -27098,7 +23593,7 @@
       </x:c>
     </x:row>
     <x:row r="455" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A455" s="335" t="s">
+      <x:c r="A455" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B455" t="s">
@@ -27248,7 +23743,7 @@
       </x:c>
     </x:row>
     <x:row r="458" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A458" s="336" t="s">
+      <x:c r="A458" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B458" t="s">
@@ -27448,7 +23943,7 @@
       </x:c>
     </x:row>
     <x:row r="462" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A462" s="337" t="s">
+      <x:c r="A462" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B462" t="s">
@@ -27548,7 +24043,7 @@
       </x:c>
     </x:row>
     <x:row r="464" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A464" s="338" t="s">
+      <x:c r="A464" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B464" t="s">
@@ -27598,7 +24093,7 @@
       </x:c>
     </x:row>
     <x:row r="465" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A465" s="339" t="s">
+      <x:c r="A465" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B465" t="s">
@@ -27648,7 +24143,7 @@
       </x:c>
     </x:row>
     <x:row r="466" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A466" s="340" t="s">
+      <x:c r="A466" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B466" t="s">
@@ -27698,7 +24193,7 @@
       </x:c>
     </x:row>
     <x:row r="467" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A467" s="341" t="s">
+      <x:c r="A467" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B467" t="s">
@@ -27748,7 +24243,7 @@
       </x:c>
     </x:row>
     <x:row r="468" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A468" s="342" t="s">
+      <x:c r="A468" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B468" t="s">
@@ -27798,7 +24293,7 @@
       </x:c>
     </x:row>
     <x:row r="469" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A469" s="343" t="s">
+      <x:c r="A469" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B469" t="s">
@@ -27848,7 +24343,7 @@
       </x:c>
     </x:row>
     <x:row r="470" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A470" s="344" t="s">
+      <x:c r="A470" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B470" t="s">
@@ -27898,7 +24393,7 @@
       </x:c>
     </x:row>
     <x:row r="471" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A471" s="345" t="s">
+      <x:c r="A471" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B471" t="s">
@@ -27948,7 +24443,7 @@
       </x:c>
     </x:row>
     <x:row r="472" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A472" s="346" t="s">
+      <x:c r="A472" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B472" t="s">
@@ -28048,7 +24543,7 @@
       </x:c>
     </x:row>
     <x:row r="474" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A474" s="347" t="s">
+      <x:c r="A474" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B474" t="s">
@@ -28098,7 +24593,7 @@
       </x:c>
     </x:row>
     <x:row r="475" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A475" s="348" t="s">
+      <x:c r="A475" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B475" t="s">
@@ -28148,7 +24643,7 @@
       </x:c>
     </x:row>
     <x:row r="476" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A476" s="349" t="s">
+      <x:c r="A476" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B476" t="s">
@@ -28248,7 +24743,7 @@
       </x:c>
     </x:row>
     <x:row r="478" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A478" s="350" t="s">
+      <x:c r="A478" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B478" t="s">
@@ -28348,7 +24843,7 @@
       </x:c>
     </x:row>
     <x:row r="480" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A480" s="351" t="s">
+      <x:c r="A480" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B480" t="s">
@@ -28398,7 +24893,7 @@
       </x:c>
     </x:row>
     <x:row r="481" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A481" s="352" t="s">
+      <x:c r="A481" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B481" t="s">
@@ -28448,7 +24943,7 @@
       </x:c>
     </x:row>
     <x:row r="482" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A482" s="353" t="s">
+      <x:c r="A482" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B482" t="s">
@@ -28498,7 +24993,7 @@
       </x:c>
     </x:row>
     <x:row r="483" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A483" s="354" t="s">
+      <x:c r="A483" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B483" t="s">
@@ -28548,7 +25043,7 @@
       </x:c>
     </x:row>
     <x:row r="484" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A484" s="355" t="s">
+      <x:c r="A484" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B484" t="s">
@@ -28648,7 +25143,7 @@
       </x:c>
     </x:row>
     <x:row r="486" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A486" s="356" t="s">
+      <x:c r="A486" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B486" t="s">
@@ -28748,7 +25243,7 @@
       </x:c>
     </x:row>
     <x:row r="488" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A488" s="357" t="s">
+      <x:c r="A488" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B488" t="s">
@@ -28798,7 +25293,7 @@
       </x:c>
     </x:row>
     <x:row r="489" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A489" s="358" t="s">
+      <x:c r="A489" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B489" t="s">
@@ -28898,7 +25393,7 @@
       </x:c>
     </x:row>
     <x:row r="491" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A491" s="359" t="s">
+      <x:c r="A491" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B491" t="s">
@@ -28998,7 +25493,7 @@
       </x:c>
     </x:row>
     <x:row r="493" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A493" s="360" t="s">
+      <x:c r="A493" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B493" t="s">
@@ -29048,7 +25543,7 @@
       </x:c>
     </x:row>
     <x:row r="494" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A494" s="361" t="s">
+      <x:c r="A494" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B494" t="s">
@@ -29098,7 +25593,7 @@
       </x:c>
     </x:row>
     <x:row r="495" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A495" s="362" t="s">
+      <x:c r="A495" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B495" t="s">
@@ -29198,7 +25693,7 @@
       </x:c>
     </x:row>
     <x:row r="497" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A497" s="363" t="s">
+      <x:c r="A497" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B497" t="s">
@@ -29298,7 +25793,7 @@
       </x:c>
     </x:row>
     <x:row r="499" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A499" s="364" t="s">
+      <x:c r="A499" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B499" t="s">
@@ -29398,7 +25893,7 @@
       </x:c>
     </x:row>
     <x:row r="501" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A501" s="365" t="s">
+      <x:c r="A501" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B501" t="s">
@@ -29498,7 +25993,7 @@
       </x:c>
     </x:row>
     <x:row r="503" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A503" s="366" t="s">
+      <x:c r="A503" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B503" t="s">
@@ -29648,7 +26143,7 @@
       </x:c>
     </x:row>
     <x:row r="506" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A506" s="367" t="s">
+      <x:c r="A506" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B506" t="s">
@@ -29698,7 +26193,7 @@
       </x:c>
     </x:row>
     <x:row r="507" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A507" s="368" t="s">
+      <x:c r="A507" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B507" t="s">
@@ -29798,7 +26293,7 @@
       </x:c>
     </x:row>
     <x:row r="509" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A509" s="369" t="s">
+      <x:c r="A509" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B509" t="s">
@@ -29848,7 +26343,7 @@
       </x:c>
     </x:row>
     <x:row r="510" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A510" s="370" t="s">
+      <x:c r="A510" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B510" t="s">
@@ -29898,7 +26393,7 @@
       </x:c>
     </x:row>
     <x:row r="511" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A511" s="371" t="s">
+      <x:c r="A511" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B511" t="s">
@@ -29948,7 +26443,7 @@
       </x:c>
     </x:row>
     <x:row r="512" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A512" s="372" t="s">
+      <x:c r="A512" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B512" t="s">
@@ -29998,7 +26493,7 @@
       </x:c>
     </x:row>
     <x:row r="513" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A513" s="373" t="s">
+      <x:c r="A513" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B513" t="s">
@@ -30048,7 +26543,7 @@
       </x:c>
     </x:row>
     <x:row r="514" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A514" s="374" t="s">
+      <x:c r="A514" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B514" t="s">
@@ -30098,7 +26593,7 @@
       </x:c>
     </x:row>
     <x:row r="515" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A515" s="375" t="s">
+      <x:c r="A515" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B515" t="s">
@@ -30148,7 +26643,7 @@
       </x:c>
     </x:row>
     <x:row r="516" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A516" s="376" t="s">
+      <x:c r="A516" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B516" t="s">
@@ -30298,7 +26793,7 @@
       </x:c>
     </x:row>
     <x:row r="519" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A519" s="377" t="s">
+      <x:c r="A519" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B519" t="s">
@@ -30348,7 +26843,7 @@
       </x:c>
     </x:row>
     <x:row r="520" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A520" s="378" t="s">
+      <x:c r="A520" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B520" t="s">
@@ -30448,7 +26943,7 @@
       </x:c>
     </x:row>
     <x:row r="522" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A522" s="379" t="s">
+      <x:c r="A522" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B522" t="s">
@@ -30498,7 +26993,7 @@
       </x:c>
     </x:row>
     <x:row r="523" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A523" s="380" t="s">
+      <x:c r="A523" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B523" t="s">
@@ -30548,7 +27043,7 @@
       </x:c>
     </x:row>
     <x:row r="524" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A524" s="381" t="s">
+      <x:c r="A524" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B524" t="s">
@@ -30598,7 +27093,7 @@
       </x:c>
     </x:row>
     <x:row r="525" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A525" s="382" t="s">
+      <x:c r="A525" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B525" t="s">
@@ -30648,7 +27143,7 @@
       </x:c>
     </x:row>
     <x:row r="526" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A526" s="383" t="s">
+      <x:c r="A526" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B526" t="s">
@@ -30698,7 +27193,7 @@
       </x:c>
     </x:row>
     <x:row r="527" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A527" s="384" t="s">
+      <x:c r="A527" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B527" t="s">
@@ -30848,7 +27343,7 @@
       </x:c>
     </x:row>
     <x:row r="530" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A530" s="385" t="s">
+      <x:c r="A530" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B530" t="s">
@@ -30948,7 +27443,7 @@
       </x:c>
     </x:row>
     <x:row r="532" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A532" s="386" t="s">
+      <x:c r="A532" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B532" t="s">
@@ -31098,7 +27593,7 @@
       </x:c>
     </x:row>
     <x:row r="535" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A535" s="387" t="s">
+      <x:c r="A535" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B535" t="s">
@@ -31148,7 +27643,7 @@
       </x:c>
     </x:row>
     <x:row r="536" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A536" s="388" t="s">
+      <x:c r="A536" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B536" t="s">
@@ -31198,7 +27693,7 @@
       </x:c>
     </x:row>
     <x:row r="537" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A537" s="389" t="s">
+      <x:c r="A537" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B537" t="s">
@@ -31248,7 +27743,7 @@
       </x:c>
     </x:row>
     <x:row r="538" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A538" s="390" t="s">
+      <x:c r="A538" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B538" t="s">
@@ -31398,7 +27893,7 @@
       </x:c>
     </x:row>
     <x:row r="541" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A541" s="391" t="s">
+      <x:c r="A541" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B541" t="s">
@@ -31448,7 +27943,7 @@
       </x:c>
     </x:row>
     <x:row r="542" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A542" s="392" t="s">
+      <x:c r="A542" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B542" t="s">
@@ -31498,7 +27993,7 @@
       </x:c>
     </x:row>
     <x:row r="543" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A543" s="393" t="s">
+      <x:c r="A543" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B543" t="s">
@@ -31548,7 +28043,7 @@
       </x:c>
     </x:row>
     <x:row r="544" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A544" s="394" t="s">
+      <x:c r="A544" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B544" t="s">
@@ -31598,7 +28093,7 @@
       </x:c>
     </x:row>
     <x:row r="545" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A545" s="395" t="s">
+      <x:c r="A545" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B545" t="s">
@@ -31648,7 +28143,7 @@
       </x:c>
     </x:row>
     <x:row r="546" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A546" s="396" t="s">
+      <x:c r="A546" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B546" t="s">
@@ -31698,7 +28193,7 @@
       </x:c>
     </x:row>
     <x:row r="547" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A547" s="397" t="s">
+      <x:c r="A547" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B547" t="s">
@@ -31748,7 +28243,7 @@
       </x:c>
     </x:row>
     <x:row r="548" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A548" s="398" t="s">
+      <x:c r="A548" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B548" t="s">
@@ -31798,7 +28293,7 @@
       </x:c>
     </x:row>
     <x:row r="549" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A549" s="399" t="s">
+      <x:c r="A549" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B549" t="s">
@@ -31898,7 +28393,7 @@
       </x:c>
     </x:row>
     <x:row r="551" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A551" s="400" t="s">
+      <x:c r="A551" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B551" t="s">
@@ -31948,7 +28443,7 @@
       </x:c>
     </x:row>
     <x:row r="552" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A552" s="401" t="s">
+      <x:c r="A552" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B552" t="s">
@@ -31998,7 +28493,7 @@
       </x:c>
     </x:row>
     <x:row r="553" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A553" s="402" t="s">
+      <x:c r="A553" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B553" t="s">
@@ -32048,7 +28543,7 @@
       </x:c>
     </x:row>
     <x:row r="554" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A554" s="403" t="s">
+      <x:c r="A554" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B554" t="s">
@@ -32098,7 +28593,7 @@
       </x:c>
     </x:row>
     <x:row r="555" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A555" s="404" t="s">
+      <x:c r="A555" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B555" t="s">
@@ -32148,7 +28643,7 @@
       </x:c>
     </x:row>
     <x:row r="556" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A556" s="405" t="s">
+      <x:c r="A556" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B556" t="s">
@@ -32198,7 +28693,7 @@
       </x:c>
     </x:row>
     <x:row r="557" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A557" s="406" t="s">
+      <x:c r="A557" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B557" t="s">
@@ -32248,7 +28743,7 @@
       </x:c>
     </x:row>
     <x:row r="558" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A558" s="407" t="s">
+      <x:c r="A558" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B558" t="s">
@@ -32298,7 +28793,7 @@
       </x:c>
     </x:row>
     <x:row r="559" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A559" s="408" t="s">
+      <x:c r="A559" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B559" t="s">
@@ -32348,7 +28843,7 @@
       </x:c>
     </x:row>
     <x:row r="560" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A560" s="409" t="s">
+      <x:c r="A560" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B560" t="s">
@@ -32398,7 +28893,7 @@
       </x:c>
     </x:row>
     <x:row r="561" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A561" s="410" t="s">
+      <x:c r="A561" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B561" t="s">
@@ -32498,7 +28993,7 @@
       </x:c>
     </x:row>
     <x:row r="563" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A563" s="411" t="s">
+      <x:c r="A563" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B563" t="s">
@@ -32548,7 +29043,7 @@
       </x:c>
     </x:row>
     <x:row r="564" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A564" s="412" t="s">
+      <x:c r="A564" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B564" t="s">
@@ -32598,7 +29093,7 @@
       </x:c>
     </x:row>
     <x:row r="565" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A565" s="413" t="s">
+      <x:c r="A565" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B565" t="s">
@@ -32698,7 +29193,7 @@
       </x:c>
     </x:row>
     <x:row r="567" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A567" s="414" t="s">
+      <x:c r="A567" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B567" t="s">
@@ -32748,7 +29243,7 @@
       </x:c>
     </x:row>
     <x:row r="568" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A568" s="415" t="s">
+      <x:c r="A568" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B568" t="s">
@@ -32798,7 +29293,7 @@
       </x:c>
     </x:row>
     <x:row r="569" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A569" s="416" t="s">
+      <x:c r="A569" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B569" t="s">
@@ -32848,7 +29343,7 @@
       </x:c>
     </x:row>
     <x:row r="570" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A570" s="417" t="s">
+      <x:c r="A570" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B570" t="s">
@@ -32898,7 +29393,7 @@
       </x:c>
     </x:row>
     <x:row r="571" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A571" s="418" t="s">
+      <x:c r="A571" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B571" t="s">
@@ -32948,7 +29443,7 @@
       </x:c>
     </x:row>
     <x:row r="572" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A572" s="419" t="s">
+      <x:c r="A572" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B572" t="s">
@@ -33048,7 +29543,7 @@
       </x:c>
     </x:row>
     <x:row r="574" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A574" s="420" t="s">
+      <x:c r="A574" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B574" t="s">
@@ -33098,7 +29593,7 @@
       </x:c>
     </x:row>
     <x:row r="575" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A575" s="421" t="s">
+      <x:c r="A575" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B575" t="s">
@@ -33148,7 +29643,7 @@
       </x:c>
     </x:row>
     <x:row r="576" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A576" s="422" t="s">
+      <x:c r="A576" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B576" t="s">
@@ -33248,7 +29743,7 @@
       </x:c>
     </x:row>
     <x:row r="578" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A578" s="423" t="s">
+      <x:c r="A578" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B578" t="s">
@@ -33298,7 +29793,7 @@
       </x:c>
     </x:row>
     <x:row r="579" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A579" s="424" t="s">
+      <x:c r="A579" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B579" t="s">
@@ -33348,7 +29843,7 @@
       </x:c>
     </x:row>
     <x:row r="580" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A580" s="425" t="s">
+      <x:c r="A580" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B580" t="s">
@@ -33398,7 +29893,7 @@
       </x:c>
     </x:row>
     <x:row r="581" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A581" s="426" t="s">
+      <x:c r="A581" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B581" t="s">
@@ -33448,7 +29943,7 @@
       </x:c>
     </x:row>
     <x:row r="582" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A582" s="427" t="s">
+      <x:c r="A582" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B582" t="s">
@@ -33498,7 +29993,7 @@
       </x:c>
     </x:row>
     <x:row r="583" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A583" s="428" t="s">
+      <x:c r="A583" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B583" t="s">
@@ -33548,7 +30043,7 @@
       </x:c>
     </x:row>
     <x:row r="584" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A584" s="429" t="s">
+      <x:c r="A584" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B584" t="s">
@@ -33648,7 +30143,7 @@
       </x:c>
     </x:row>
     <x:row r="586" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A586" s="430" t="s">
+      <x:c r="A586" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B586" t="s">
@@ -33698,7 +30193,7 @@
       </x:c>
     </x:row>
     <x:row r="587" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A587" s="431" t="s">
+      <x:c r="A587" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B587" t="s">
@@ -33748,7 +30243,7 @@
       </x:c>
     </x:row>
     <x:row r="588" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A588" s="432" t="s">
+      <x:c r="A588" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B588" t="s">
@@ -33798,7 +30293,7 @@
       </x:c>
     </x:row>
     <x:row r="589" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A589" s="433" t="s">
+      <x:c r="A589" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B589" t="s">
@@ -33848,7 +30343,7 @@
       </x:c>
     </x:row>
     <x:row r="590" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A590" s="434" t="s">
+      <x:c r="A590" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B590" t="s">
@@ -33898,7 +30393,7 @@
       </x:c>
     </x:row>
     <x:row r="591" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A591" s="435" t="s">
+      <x:c r="A591" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B591" t="s">
@@ -33948,7 +30443,7 @@
       </x:c>
     </x:row>
     <x:row r="592" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A592" s="436" t="s">
+      <x:c r="A592" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B592" t="s">
@@ -34098,7 +30593,7 @@
       </x:c>
     </x:row>
     <x:row r="595" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A595" s="437" t="s">
+      <x:c r="A595" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B595" t="s">
@@ -34148,7 +30643,7 @@
       </x:c>
     </x:row>
     <x:row r="596" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A596" s="438" t="s">
+      <x:c r="A596" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B596" t="s">
@@ -34198,7 +30693,7 @@
       </x:c>
     </x:row>
     <x:row r="597" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A597" s="439" t="s">
+      <x:c r="A597" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B597" t="s">
@@ -34248,7 +30743,7 @@
       </x:c>
     </x:row>
     <x:row r="598" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A598" s="440" t="s">
+      <x:c r="A598" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B598" t="s">
@@ -34348,7 +30843,7 @@
       </x:c>
     </x:row>
     <x:row r="600" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A600" s="441" t="s">
+      <x:c r="A600" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B600" t="s">
@@ -34398,7 +30893,7 @@
       </x:c>
     </x:row>
     <x:row r="601" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A601" s="442" t="s">
+      <x:c r="A601" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B601" t="s">
@@ -34448,7 +30943,7 @@
       </x:c>
     </x:row>
     <x:row r="602" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A602" s="443" t="s">
+      <x:c r="A602" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B602" t="s">
@@ -34548,7 +31043,7 @@
       </x:c>
     </x:row>
     <x:row r="604" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A604" s="444" t="s">
+      <x:c r="A604" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B604" t="s">
@@ -34648,7 +31143,7 @@
       </x:c>
     </x:row>
     <x:row r="606" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A606" s="445" t="s">
+      <x:c r="A606" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B606" t="s">
@@ -34798,7 +31293,7 @@
       </x:c>
     </x:row>
     <x:row r="609" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A609" s="446" t="s">
+      <x:c r="A609" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B609" t="s">
@@ -34898,7 +31393,7 @@
       </x:c>
     </x:row>
     <x:row r="611" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A611" s="447" t="s">
+      <x:c r="A611" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B611" t="s">
@@ -35048,7 +31543,7 @@
       </x:c>
     </x:row>
     <x:row r="614" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A614" s="448" t="s">
+      <x:c r="A614" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B614" t="s">
@@ -35098,7 +31593,7 @@
       </x:c>
     </x:row>
     <x:row r="615" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A615" s="449" t="s">
+      <x:c r="A615" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B615" t="s">
@@ -35148,7 +31643,7 @@
       </x:c>
     </x:row>
     <x:row r="616" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A616" s="450" t="s">
+      <x:c r="A616" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B616" t="s">
@@ -35198,7 +31693,7 @@
       </x:c>
     </x:row>
     <x:row r="617" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A617" s="451" t="s">
+      <x:c r="A617" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B617" t="s">
@@ -35248,7 +31743,7 @@
       </x:c>
     </x:row>
     <x:row r="618" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A618" s="452" t="s">
+      <x:c r="A618" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B618" t="s">
@@ -35298,7 +31793,7 @@
       </x:c>
     </x:row>
     <x:row r="619" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A619" s="453" t="s">
+      <x:c r="A619" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B619" t="s">
@@ -35348,7 +31843,7 @@
       </x:c>
     </x:row>
     <x:row r="620" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A620" s="454" t="s">
+      <x:c r="A620" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B620" t="s">
@@ -35398,7 +31893,7 @@
       </x:c>
     </x:row>
     <x:row r="621" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A621" s="455" t="s">
+      <x:c r="A621" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B621" t="s">
@@ -35448,7 +31943,7 @@
       </x:c>
     </x:row>
     <x:row r="622" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A622" s="456" t="s">
+      <x:c r="A622" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B622" t="s">
@@ -35548,7 +32043,7 @@
       </x:c>
     </x:row>
     <x:row r="624" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A624" s="457" t="s">
+      <x:c r="A624" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B624" t="s">
@@ -35698,7 +32193,7 @@
       </x:c>
     </x:row>
     <x:row r="627" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A627" s="458" t="s">
+      <x:c r="A627" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B627" t="s">
@@ -35798,7 +32293,7 @@
       </x:c>
     </x:row>
     <x:row r="629" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A629" s="459" t="s">
+      <x:c r="A629" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B629" t="s">
@@ -35848,7 +32343,7 @@
       </x:c>
     </x:row>
     <x:row r="630" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A630" s="460" t="s">
+      <x:c r="A630" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B630" t="s">
@@ -35898,7 +32393,7 @@
       </x:c>
     </x:row>
     <x:row r="631" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A631" s="461" t="s">
+      <x:c r="A631" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B631" t="s">
@@ -35948,7 +32443,7 @@
       </x:c>
     </x:row>
     <x:row r="632" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A632" s="462" t="s">
+      <x:c r="A632" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B632" t="s">
@@ -36048,7 +32543,7 @@
       </x:c>
     </x:row>
     <x:row r="634" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A634" s="463" t="s">
+      <x:c r="A634" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B634" t="s">
@@ -36098,7 +32593,7 @@
       </x:c>
     </x:row>
     <x:row r="635" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A635" s="464" t="s">
+      <x:c r="A635" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B635" t="s">
@@ -36148,7 +32643,7 @@
       </x:c>
     </x:row>
     <x:row r="636" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A636" s="465" t="s">
+      <x:c r="A636" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B636" t="s">
@@ -36198,7 +32693,7 @@
       </x:c>
     </x:row>
     <x:row r="637" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A637" s="466" t="s">
+      <x:c r="A637" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B637" t="s">
@@ -36248,7 +32743,7 @@
       </x:c>
     </x:row>
     <x:row r="638" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A638" s="467" t="s">
+      <x:c r="A638" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B638" t="s">
@@ -36298,7 +32793,7 @@
       </x:c>
     </x:row>
     <x:row r="639" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A639" s="468" t="s">
+      <x:c r="A639" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B639" t="s">
@@ -36348,7 +32843,7 @@
       </x:c>
     </x:row>
     <x:row r="640" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A640" s="469" t="s">
+      <x:c r="A640" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B640" t="s">
@@ -36398,7 +32893,7 @@
       </x:c>
     </x:row>
     <x:row r="641" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A641" s="470" t="s">
+      <x:c r="A641" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B641" t="s">
@@ -36448,7 +32943,7 @@
       </x:c>
     </x:row>
     <x:row r="642" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A642" s="471" t="s">
+      <x:c r="A642" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B642" t="s">
@@ -36548,7 +33043,7 @@
       </x:c>
     </x:row>
     <x:row r="644" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A644" s="472" t="s">
+      <x:c r="A644" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B644" t="s">
@@ -36598,7 +33093,7 @@
       </x:c>
     </x:row>
     <x:row r="645" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A645" s="473" t="s">
+      <x:c r="A645" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B645" t="s">
@@ -36698,7 +33193,7 @@
       </x:c>
     </x:row>
     <x:row r="647" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A647" s="474" t="s">
+      <x:c r="A647" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B647" t="s">
@@ -36748,7 +33243,7 @@
       </x:c>
     </x:row>
     <x:row r="648" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A648" s="475" t="s">
+      <x:c r="A648" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B648" t="s">
@@ -36848,7 +33343,7 @@
       </x:c>
     </x:row>
     <x:row r="650" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A650" s="476" t="s">
+      <x:c r="A650" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B650" t="s">
@@ -36898,7 +33393,7 @@
       </x:c>
     </x:row>
     <x:row r="651" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A651" s="477" t="s">
+      <x:c r="A651" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B651" t="s">
@@ -36948,7 +33443,7 @@
       </x:c>
     </x:row>
     <x:row r="652" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A652" s="478" t="s">
+      <x:c r="A652" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B652" t="s">
@@ -36998,7 +33493,7 @@
       </x:c>
     </x:row>
     <x:row r="653" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A653" s="479" t="s">
+      <x:c r="A653" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B653" t="s">
@@ -37048,7 +33543,7 @@
       </x:c>
     </x:row>
     <x:row r="654" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A654" s="480" t="s">
+      <x:c r="A654" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B654" t="s">
@@ -37098,7 +33593,7 @@
       </x:c>
     </x:row>
     <x:row r="655" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A655" s="481" t="s">
+      <x:c r="A655" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B655" t="s">
@@ -37148,7 +33643,7 @@
       </x:c>
     </x:row>
     <x:row r="656" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A656" s="482" t="s">
+      <x:c r="A656" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B656" t="s">
@@ -37198,7 +33693,7 @@
       </x:c>
     </x:row>
     <x:row r="657" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A657" s="483" t="s">
+      <x:c r="A657" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B657" t="s">
@@ -37248,7 +33743,7 @@
       </x:c>
     </x:row>
     <x:row r="658" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A658" s="484" t="s">
+      <x:c r="A658" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B658" t="s">
@@ -37298,7 +33793,7 @@
       </x:c>
     </x:row>
     <x:row r="659" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A659" s="485" t="s">
+      <x:c r="A659" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B659" t="s">
@@ -37348,7 +33843,7 @@
       </x:c>
     </x:row>
     <x:row r="660" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A660" s="486" t="s">
+      <x:c r="A660" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B660" t="s">
@@ -37498,7 +33993,7 @@
       </x:c>
     </x:row>
     <x:row r="663" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A663" s="487" t="s">
+      <x:c r="A663" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B663" t="s">
@@ -37598,7 +34093,7 @@
       </x:c>
     </x:row>
     <x:row r="665" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A665" s="488" t="s">
+      <x:c r="A665" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B665" t="s">
@@ -37648,7 +34143,7 @@
       </x:c>
     </x:row>
     <x:row r="666" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A666" s="489" t="s">
+      <x:c r="A666" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B666" t="s">
@@ -37698,7 +34193,7 @@
       </x:c>
     </x:row>
     <x:row r="667" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A667" s="490" t="s">
+      <x:c r="A667" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B667" t="s">
@@ -37898,7 +34393,7 @@
       </x:c>
     </x:row>
     <x:row r="671" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A671" s="491" t="s">
+      <x:c r="A671" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B671" t="s">
@@ -37948,7 +34443,7 @@
       </x:c>
     </x:row>
     <x:row r="672" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A672" s="492" t="s">
+      <x:c r="A672" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B672" t="s">
@@ -37998,7 +34493,7 @@
       </x:c>
     </x:row>
     <x:row r="673" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A673" s="493" t="s">
+      <x:c r="A673" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B673" t="s">
@@ -38048,7 +34543,7 @@
       </x:c>
     </x:row>
     <x:row r="674" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A674" s="494" t="s">
+      <x:c r="A674" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B674" t="s">
@@ -38098,7 +34593,7 @@
       </x:c>
     </x:row>
     <x:row r="675" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A675" s="495" t="s">
+      <x:c r="A675" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B675" t="s">
@@ -38148,7 +34643,7 @@
       </x:c>
     </x:row>
     <x:row r="676" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A676" s="496" t="s">
+      <x:c r="A676" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B676" t="s">
@@ -38198,7 +34693,7 @@
       </x:c>
     </x:row>
     <x:row r="677" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A677" s="497" t="s">
+      <x:c r="A677" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B677" t="s">
@@ -38298,7 +34793,7 @@
       </x:c>
     </x:row>
     <x:row r="679" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A679" s="498" t="s">
+      <x:c r="A679" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B679" t="s">
@@ -38348,7 +34843,7 @@
       </x:c>
     </x:row>
     <x:row r="680" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A680" s="499" t="s">
+      <x:c r="A680" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B680" t="s">
@@ -38398,7 +34893,7 @@
       </x:c>
     </x:row>
     <x:row r="681" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A681" s="500" t="s">
+      <x:c r="A681" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B681" t="s">
@@ -38498,7 +34993,7 @@
       </x:c>
     </x:row>
     <x:row r="683" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A683" s="501" t="s">
+      <x:c r="A683" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B683" t="s">
@@ -38598,7 +35093,7 @@
       </x:c>
     </x:row>
     <x:row r="685" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A685" s="502" t="s">
+      <x:c r="A685" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B685" t="s">
@@ -38698,7 +35193,7 @@
       </x:c>
     </x:row>
     <x:row r="687" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A687" s="503" t="s">
+      <x:c r="A687" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B687" t="s">
@@ -38848,7 +35343,7 @@
       </x:c>
     </x:row>
     <x:row r="690" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A690" s="504" t="s">
+      <x:c r="A690" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B690" t="s">
@@ -38898,7 +35393,7 @@
       </x:c>
     </x:row>
     <x:row r="691" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A691" s="505" t="s">
+      <x:c r="A691" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B691" t="s">
@@ -38948,7 +35443,7 @@
       </x:c>
     </x:row>
     <x:row r="692" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A692" s="506" t="s">
+      <x:c r="A692" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B692" t="s">
@@ -38998,7 +35493,7 @@
       </x:c>
     </x:row>
     <x:row r="693" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A693" s="507" t="s">
+      <x:c r="A693" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B693" t="s">
@@ -39148,7 +35643,7 @@
       </x:c>
     </x:row>
     <x:row r="696" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A696" s="508" t="s">
+      <x:c r="A696" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B696" t="s">
@@ -39198,7 +35693,7 @@
       </x:c>
     </x:row>
     <x:row r="697" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A697" s="509" t="s">
+      <x:c r="A697" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B697" t="s">
@@ -39248,7 +35743,7 @@
       </x:c>
     </x:row>
     <x:row r="698" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A698" s="510" t="s">
+      <x:c r="A698" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B698" t="s">
@@ -39298,7 +35793,7 @@
       </x:c>
     </x:row>
     <x:row r="699" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A699" s="511" t="s">
+      <x:c r="A699" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B699" t="s">
@@ -39348,7 +35843,7 @@
       </x:c>
     </x:row>
     <x:row r="700" spans="1:16" x14ac:dyDescent="0.25">
-      <x:c r="A700" s="512" t="s">
+      <x:c r="A700" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B700" t="s">

--- a/TextReplace.Tests/MockFiles/OutputTests/Outputs/Styling/output-financial-sample-all-styles.xlsx
+++ b/TextReplace.Tests/MockFiles/OutputTests/Outputs/Styling/output-financial-sample-all-styles.xlsx
@@ -269,7 +269,7 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
+        <x:fgColor rgb="FF0000"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -579,28 +579,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financials" displayName="financials" ref="A1:P701" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="Currency" dataCellStyle="Currency">
-  <autoFilter ref="A1:P701"/>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Segment"/>
-    <tableColumn id="2" name="Country"/>
-    <tableColumn id="16" name="Product" dataDxfId="12" dataCellStyle="Currency"/>
-    <tableColumn id="19" name="Discount Band" dataDxfId="11" dataCellStyle="Currency"/>
-    <tableColumn id="6" name="Units Sold"/>
-    <tableColumn id="7" name="Manufacturing Price" dataDxfId="10" dataCellStyle="Currency"/>
-    <tableColumn id="8" name="Sale Price" dataDxfId="9" dataCellStyle="Currency"/>
-    <tableColumn id="9" name="Gross Sales" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="10" name="Discounts" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="11" name=" Sales" dataDxfId="6" dataCellStyle="Currency"/>
-    <tableColumn id="12" name="COGS" dataDxfId="5" dataCellStyle="Currency"/>
-    <tableColumn id="13" name="Profit" dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="4" name="Date" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="17" name="Month Number" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="18" name="Month Name" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="20" name="Year" dataDxfId="0" dataCellStyle="Currency"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financials" displayName="financials" ref="A1:P701" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="Currency" dataCellStyle="Currency">
+  <x:autoFilter ref="A1:P701"/>
+  <x:tableColumns count="16">
+    <x:tableColumn id="1" name="Segment"/>
+    <x:tableColumn id="2" name="Country"/>
+    <x:tableColumn id="16" name="Product" dataDxfId="12" dataCellStyle="Currency"/>
+    <x:tableColumn id="19" name="Discount Band" dataDxfId="11" dataCellStyle="Currency"/>
+    <x:tableColumn id="6" name="Units Sold"/>
+    <x:tableColumn id="7" name="Mfg Price" dataDxfId="10" dataCellStyle="Currency"/>
+    <x:tableColumn id="8" name="Sale Price" dataDxfId="9" dataCellStyle="Currency"/>
+    <x:tableColumn id="9" name="Gross Sales" dataDxfId="8" dataCellStyle="Currency"/>
+    <x:tableColumn id="10" name="Discounts" dataDxfId="7" dataCellStyle="Currency"/>
+    <x:tableColumn id="11" name=" Sales" dataDxfId="6" dataCellStyle="Currency"/>
+    <x:tableColumn id="12" name="COGS" dataDxfId="5" dataCellStyle="Currency"/>
+    <x:tableColumn id="13" name="Profit" dataDxfId="4" dataCellStyle="Currency"/>
+    <x:tableColumn id="4" name="Date" dataDxfId="3" dataCellStyle="Currency"/>
+    <x:tableColumn id="17" name="Month Number" dataDxfId="2" dataCellStyle="Currency"/>
+    <x:tableColumn id="18" name="Month Name" dataDxfId="1" dataCellStyle="Currency"/>
+    <x:tableColumn id="20" name="Yr" dataDxfId="0" dataCellStyle="Currency"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
